--- a/codigos114_openpyxl/XLSX/workbook.xlsx
+++ b/codigos114_openpyxl/XLSX/workbook.xlsx
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="n">
         <v>9.199999999999999</v>
